--- a/IntUI/Uploads/SalesImport/Completed/14-02-2012-210730SalesTestImport3.xlsx
+++ b/IntUI/Uploads/SalesImport/Completed/14-02-2012-210730SalesTestImport3.xlsx
@@ -428,10 +428,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C39"/>
+      <selection activeCell="H8" sqref="H8:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,7 +444,7 @@
     <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>40940</v>
       </c>
@@ -484,7 +484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>40941</v>
       </c>
@@ -504,7 +504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>40942</v>
       </c>
@@ -524,7 +524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>40942</v>
       </c>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>40942</v>
       </c>
@@ -561,7 +561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>40942</v>
       </c>
@@ -581,7 +581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>40942</v>
       </c>
@@ -600,8 +600,12 @@
       <c r="F8" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>40943</v>
       </c>
@@ -617,8 +621,12 @@
       <c r="E9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <f>1+2</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>40944</v>
       </c>
@@ -638,7 +646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>40945</v>
       </c>
@@ -655,7 +663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>40946</v>
       </c>
@@ -672,7 +680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>40946</v>
       </c>
@@ -692,7 +700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>40946</v>
       </c>
@@ -709,7 +717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>40946</v>
       </c>
@@ -729,7 +737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>40946</v>
       </c>
